--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3271.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3271.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.113310549042137</v>
+        <v>1.667067050933838</v>
       </c>
       <c r="B1">
-        <v>1.670993211058921</v>
+        <v>3.658567428588867</v>
       </c>
       <c r="C1">
-        <v>3.606810092761981</v>
+        <v>2.154602289199829</v>
       </c>
       <c r="D1">
-        <v>4.449692169807649</v>
+        <v>1.505482316017151</v>
       </c>
       <c r="E1">
-        <v>1.2427109566239</v>
+        <v>1.286141872406006</v>
       </c>
     </row>
   </sheetData>
